--- a/docs/API_Intro_V2.xlsx
+++ b/docs/API_Intro_V2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="API 使用说明" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="99">
   <si>
     <t>check if register</t>
   </si>
@@ -670,12 +670,28 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Push Message Format：
+msg content： 201
+extras： 发送方用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Push Message Format：
+msg content： 202
+extras： 发送方用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -768,6 +784,14 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -912,7 +936,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -992,6 +1016,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1408,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1420,6 +1456,7 @@
     <col min="5" max="5" width="25" style="22" customWidth="1"/>
     <col min="6" max="6" width="33.25" style="22" customWidth="1"/>
     <col min="7" max="7" width="56.375" customWidth="1"/>
+    <col min="8" max="8" width="56.375" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1441,6 +1478,9 @@
       <c r="G2" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="H2" s="34" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="3" spans="2:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="14" t="s">
@@ -1461,6 +1501,7 @@
       <c r="G3" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="2:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="15"/>
@@ -1479,6 +1520,7 @@
       <c r="G4" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="H4" s="36"/>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="2:9" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -1498,6 +1540,7 @@
       <c r="G5" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="2:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="13" t="s">
@@ -1517,6 +1560,9 @@
       </c>
       <c r="G6" s="6" t="s">
         <v>24</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.15">
@@ -1534,6 +1580,9 @@
         <v>75</v>
       </c>
       <c r="G7" s="25"/>
+      <c r="H7" s="36" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="8" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="23"/>
@@ -1550,6 +1599,7 @@
         <v>77</v>
       </c>
       <c r="G8" s="25"/>
+      <c r="H8" s="36"/>
     </row>
     <row r="9" spans="2:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
@@ -1568,6 +1618,7 @@
       <c r="G9" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="H9" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1688,7 +1739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>

--- a/docs/API_Intro_V2.xlsx
+++ b/docs/API_Intro_V2.xlsx
@@ -547,24 +547,6 @@
   </si>
   <si>
     <t>{
- "status": 0,
- "server_friend_version",
- "friends": [
- { "nickname": xxxx,
-      "avatar_url": xxxx,
-      "mobile": xxx,
- },{}
- ]
- "circle": [
- { "circlename": xxx,
-      "circle_url": xxx,
- }, {}
- ]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
   "nickname": xxxx,
   "avatar_url": xxxx,
   "mobile": xxx,
@@ -637,7 +619,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>服务器判断mobile带来的version（1）到server的version（4),之间的number在服务器好友列表中都有对应，如果都有对应，那么将高于mobile version的好友类表带给mobile，否则要求mobile，获取所有的好友</t>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Push Message Format：
+msg content： 201
+extras： 发送方用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Push Message Format：
+msg content： 202
+extras： 发送方用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -666,24 +660,31 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-服务器判断mobile带来的version（1）到server的version（4),之间的number在服务器好友列表中都有对应，如果都有对应，那么将高于mobile version的好友类表带给mobile，否则要求mobile，获取所有的好友</t>
+服务器判断mobile带来的version（1）到server的version（4),之间的number在服务器好友列表中都有对应，如果都有对应，那么将高于mobile version的好友类表带给mobile，否则将所有的好友列表返回给MOBILE</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Push Message Format：
-msg content： 201
-extras： 发送方用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Push Message Format：
-msg content： 202
-extras： 发送方用户名</t>
+    <t>服务器判断mobile带来的version（1）到server的version（4),之间的number在服务器好友列表中都有对应，如果都有对应，那么将高于mobile version的好友类表带给mobile，否则将所有的好友列表返回给MOBILE</t>
+  </si>
+  <si>
+    <t>{
+ "status": 0,
+ "server_friend_version" :xxx,
+ "pdate_type: " 1 (全部更新)
+                2 （部分更新）
+ "friends": [
+ { "nickname": xxxx,
+      "avatar_url": xxxx,
+      "mobile": xxx,
+ },{}
+ ]
+ "circle": [
+ { "circlename": xxx,
+      "circle_url": xxx,
+ }, {}
+ ]
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1014,20 +1015,20 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1444,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1478,8 +1479,8 @@
       <c r="G2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="34" t="s">
-        <v>96</v>
+      <c r="H2" s="33" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1501,7 +1502,7 @@
       <c r="G3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="35"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" spans="2:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="15"/>
@@ -1520,7 +1521,7 @@
       <c r="G4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="36"/>
+      <c r="H4" s="35"/>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="2:9" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -1540,7 +1541,7 @@
       <c r="G5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="37"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="2:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="13" t="s">
@@ -1561,8 +1562,8 @@
       <c r="G6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="35" t="s">
-        <v>97</v>
+      <c r="H6" s="34" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.15">
@@ -1577,11 +1578,11 @@
         <v>72</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="G7" s="25"/>
-      <c r="H7" s="36" t="s">
-        <v>98</v>
+      <c r="H7" s="35" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.15">
@@ -1593,13 +1594,13 @@
         <v>74</v>
       </c>
       <c r="E8" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="25" t="s">
-        <v>77</v>
-      </c>
       <c r="G8" s="25"/>
-      <c r="H8" s="36"/>
+      <c r="H8" s="35"/>
     </row>
     <row r="9" spans="2:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
@@ -1618,7 +1619,7 @@
       <c r="G9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="36"/>
+      <c r="H9" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1739,8 +1740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1755,21 +1756,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
+      <c r="B1" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="32"/>
@@ -1778,7 +1779,7 @@
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="2:18" s="29" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -1790,27 +1791,27 @@
         <v>66</v>
       </c>
       <c r="O7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" t="s">
         <v>81</v>
       </c>
-      <c r="D8" t="s">
-        <v>82</v>
-      </c>
       <c r="H8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" t="s">
         <v>81</v>
       </c>
-      <c r="J8" t="s">
-        <v>82</v>
-      </c>
       <c r="O8" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q8" t="s">
         <v>81</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.15">
@@ -2083,7 +2084,7 @@
         <v>67</v>
       </c>
       <c r="O32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.15">
@@ -2201,7 +2202,7 @@
         <v>64</v>
       </c>
       <c r="O43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.15">
@@ -2233,10 +2234,10 @@
         <v>46</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O50" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.15">
@@ -2344,7 +2345,7 @@
     <row r="65" spans="2:5" s="29" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="67" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.15">
@@ -2357,10 +2358,10 @@
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D69" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.15">
@@ -2379,7 +2380,7 @@
         <v>48</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.15">
@@ -2403,22 +2404,22 @@
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B87" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/docs/API_Intro_V2.xlsx
+++ b/docs/API_Intro_V2.xlsx
@@ -671,7 +671,7 @@
     <t>{
  "status": 0,
  "server_friend_version" :xxx,
- "pdate_type: " 1 (全部更新)
+ "update_type: " 1 (全部更新)
                 2 （部分更新）
  "friends": [
  { "nickname": xxxx,
@@ -1446,7 +1446,7 @@
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/docs/API_Intro_V2.xlsx
+++ b/docs/API_Intro_V2.xlsx
@@ -355,14 +355,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>get friend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>friend/get_friend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">MOBILE </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -528,12 +520,6 @@
       "circle_url": xxx,
  }, {}
  ]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "mobile_friend_version": xxxx,
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -668,6 +654,17 @@
     <t>服务器判断mobile带来的version（1）到server的version（4),之间的number在服务器好友列表中都有对应，如果都有对应，那么将高于mobile version的好友类表带给mobile，否则将所有的好友列表返回给MOBILE</t>
   </si>
   <si>
+    <t>get friend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"imsi":xxx
+"mobile_friend_version": xxxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
  "status": 0,
  "server_friend_version" :xxx,
@@ -677,6 +674,8 @@
  { "nickname": xxxx,
       "avatar_url": xxxx,
       "mobile": xxx,
+      "status": 1,( 正常好友)
+                2( 待验证好友)
  },{}
  ]
  "circle": [
@@ -685,6 +684,10 @@
  }, {}
  ]
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friend/get_friend</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1446,7 +1449,7 @@
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1480,7 +1483,7 @@
         <v>26</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1563,41 +1566,41 @@
         <v>24</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="23"/>
       <c r="C7" s="24" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G7" s="25"/>
       <c r="H7" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="23"/>
       <c r="C8" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="25" t="s">
         <v>73</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>76</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="35"/>
@@ -1614,7 +1617,7 @@
         <v>22</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>23</v>
@@ -1757,7 +1760,7 @@
   <sheetData>
     <row r="1" spans="2:18" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="37" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
@@ -1765,12 +1768,12 @@
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="32"/>
@@ -1779,521 +1782,521 @@
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="2:18" s="29" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B11" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O11" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q11" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B13" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O13" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B15" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="H15" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" t="s">
         <v>50</v>
       </c>
-      <c r="E15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="19" t="s">
+      <c r="O15" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q15" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="R15" t="s">
         <v>50</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="K15" t="s">
-        <v>52</v>
-      </c>
-      <c r="O15" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q15" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="R15" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B18" s="26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
       <c r="H18" s="26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
       <c r="K18" s="26"/>
       <c r="N18" s="26"/>
       <c r="O18" s="26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.15">
       <c r="H20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" t="s">
         <v>43</v>
       </c>
-      <c r="J20" t="s">
-        <v>45</v>
-      </c>
       <c r="O20" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q20" t="s">
         <v>43</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B21" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B23" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D23" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" t="s">
         <v>49</v>
       </c>
-      <c r="E23" t="s">
-        <v>51</v>
-      </c>
       <c r="H23" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O23" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q23" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B25" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" t="s">
-        <v>52</v>
-      </c>
       <c r="H25" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J25" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="K25" t="s">
         <v>49</v>
       </c>
-      <c r="K25" t="s">
-        <v>51</v>
-      </c>
       <c r="O25" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q25" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.15">
       <c r="D27" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H27" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" t="s">
         <v>50</v>
       </c>
-      <c r="J27" s="19" t="s">
+      <c r="O27" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q27" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="R27" t="s">
         <v>50</v>
-      </c>
-      <c r="K27" t="s">
-        <v>52</v>
-      </c>
-      <c r="O27" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q27" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="R27" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O32" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.15">
       <c r="H35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.15">
       <c r="H37" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J37" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O37" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q37" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H39" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
         <v>49</v>
       </c>
-      <c r="I39" t="s">
-        <v>51</v>
-      </c>
       <c r="J39" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="K39" t="s">
         <v>49</v>
       </c>
-      <c r="K39" t="s">
-        <v>51</v>
-      </c>
       <c r="O39" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q39" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H41" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I41" t="s">
         <v>50</v>
       </c>
-      <c r="I41" t="s">
-        <v>52</v>
-      </c>
       <c r="J41" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K41" t="s">
+        <v>68</v>
+      </c>
+      <c r="O41" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q41" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="R41" t="s">
         <v>50</v>
-      </c>
-      <c r="K41" t="s">
-        <v>70</v>
-      </c>
-      <c r="O41" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q41" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="R41" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="42" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H42" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O42" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O43" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.15">
       <c r="H44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B50" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E50" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O50" s="22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B52" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E52" t="s">
         <v>49</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E52" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.15">
       <c r="H53" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B54" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E54" t="s">
-        <v>52</v>
-      </c>
       <c r="H54" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J54" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I56" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J56" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K56" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.15">
@@ -2316,80 +2319,80 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.15">
       <c r="H58" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
         <v>49</v>
       </c>
-      <c r="I58" t="s">
-        <v>51</v>
-      </c>
       <c r="J58" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="K58" t="s">
         <v>49</v>
-      </c>
-      <c r="K58" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.15">
       <c r="H60" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I60" t="s">
         <v>50</v>
       </c>
-      <c r="I60" t="s">
-        <v>52</v>
-      </c>
       <c r="J60" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K60" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="2:5" s="29" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="67" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
+        <v>41</v>
+      </c>
+      <c r="D68" t="s">
         <v>43</v>
-      </c>
-      <c r="D68" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D69" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B71" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E71" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B73" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C75" s="28"/>
       <c r="D75" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E75" t="s">
         <v>50</v>
-      </c>
-      <c r="E75" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.15">
@@ -2404,22 +2407,22 @@
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B87" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/docs/API_Intro_V2.xlsx
+++ b/docs/API_Intro_V2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="API 使用说明" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E8" authorId="0">
+    <comment ref="E9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="104">
   <si>
     <t>check if register</t>
   </si>
@@ -524,10 +524,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>update friend infor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>friend/update_friend_info</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -540,13 +536,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
- "status": 0,
- "server_friend_version"
- }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MOBILE 将FRIEND 2的删除事件上报server</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -611,12 +600,6 @@
   <si>
     <t>Push Message Format：
 msg content： 201
-extras： 发送方用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Push Message Format：
-msg content： 202
 extras： 发送方用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -665,6 +648,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>friend/get_friend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update friend info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok friend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friend/ok_friend</t>
+  </si>
+  <si>
+    <t>{
+ "nok": x, //1: agree, 0: disagree
+ "imsi": xxxx,
+ "target_user": xxxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. target user don't register:
+{
+ "status": 28,
+ "error": "user have not register",
+}
+2. source user don't exist:
+{
+ "status": 34,
+ "error": "user do not exist",
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Push Message Format：
+msg content： 202
+extras： 发送方用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
  "status": 0,
  "server_friend_version" :xxx,
@@ -687,7 +712,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>friend/get_friend</t>
+    <t>{
+ "status": 0,
+ "server_friend_version": xxx
+ }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "status": 0
+ "server_friend_version": xxx,
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1134,8 +1169,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:G9" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
-  <autoFilter ref="B2:G9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:G10" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
+  <autoFilter ref="B2:G10"/>
   <tableColumns count="6">
     <tableColumn id="1" name="模块" dataDxfId="6"/>
     <tableColumn id="2" name="说明" dataDxfId="5"/>
@@ -1446,10 +1481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I9"/>
+  <dimension ref="B2:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1483,7 +1518,7 @@
         <v>26</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1566,63 +1601,82 @@
         <v>24</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="23"/>
-      <c r="C7" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="2"/>
+      <c r="C7" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" s="25"/>
+      <c r="F7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="H7" s="35" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="23"/>
       <c r="C8" s="24" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="35"/>
     </row>
-    <row r="9" spans="2:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="2"/>
-      <c r="C9" s="10" t="s">
+    <row r="9" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="23"/>
+      <c r="C9" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="35"/>
+    </row>
+    <row r="10" spans="2:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="2"/>
+      <c r="C10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="35"/>
+      <c r="H10" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1743,8 +1797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R87"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1760,7 +1814,7 @@
   <sheetData>
     <row r="1" spans="2:18" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="37" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
@@ -1768,12 +1822,12 @@
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="32"/>
@@ -1782,7 +1836,7 @@
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="2:18" s="29" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -1794,27 +1848,27 @@
         <v>64</v>
       </c>
       <c r="O7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.15">
@@ -2087,7 +2141,7 @@
         <v>65</v>
       </c>
       <c r="O32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.15">
@@ -2205,7 +2259,7 @@
         <v>62</v>
       </c>
       <c r="O43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.15">
@@ -2237,10 +2291,10 @@
         <v>44</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O50" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.15">
@@ -2348,7 +2402,7 @@
     <row r="65" spans="2:5" s="29" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="67" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.15">
@@ -2361,10 +2415,10 @@
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
+        <v>82</v>
+      </c>
+      <c r="D69" t="s">
         <v>84</v>
-      </c>
-      <c r="D69" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.15">
@@ -2383,7 +2437,7 @@
         <v>46</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.15">
@@ -2407,22 +2461,22 @@
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B87" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/docs/API_Intro_V2.xlsx
+++ b/docs/API_Intro_V2.xlsx
@@ -11,7 +11,7 @@
     <sheet name="全局返回码" sheetId="2" r:id="rId2"/>
     <sheet name="好友版本机制" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -660,9 +660,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>friend/ok_friend</t>
-  </si>
-  <si>
     <t>{
  "nok": x, //1: agree, 0: disagree
  "imsi": xxxx,
@@ -692,11 +689,30 @@
   <si>
     <t>{
  "status": 0,
+ "server_friend_version": xxx
+ }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "status": 0
+ "server_friend_version": xxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friend/ok_friend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "status": 0,
  "server_friend_version" :xxx,
  "update_type: " 1 (全部更新)
                 2 （部分更新）
  "friends": [
- { "nickname": xxxx,
+ { "team":     xxxx 
+    "nickname": xxxx,
       "avatar_url": xxxx,
       "mobile": xxx,
       "status": 1,( 正常好友)
@@ -708,20 +724,6 @@
       "circle_url": xxx,
  }, {}
  ]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "status": 0,
- "server_friend_version": xxx
- }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "status": 0
- "server_friend_version": xxx,
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1483,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1610,22 +1612,22 @@
         <v>96</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="H7" s="35" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="2:9" ht="173.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="23"/>
       <c r="C8" s="24" t="s">
         <v>92</v>
@@ -1637,7 +1639,7 @@
         <v>93</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="35"/>
@@ -1654,7 +1656,7 @@
         <v>71</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G9" s="25"/>
       <c r="H9" s="35"/>

--- a/docs/API_Intro_V2.xlsx
+++ b/docs/API_Intro_V2.xlsx
@@ -11,7 +11,7 @@
     <sheet name="全局返回码" sheetId="2" r:id="rId2"/>
     <sheet name="好友版本机制" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -524,10 +524,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>friend/update_friend_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
   "nickname": xxxx,
   "avatar_url": xxxx,
@@ -641,26 +637,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"imsi":xxx
-"mobile_friend_version": xxxx,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>friend/get_friend</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update friend info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ok friend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>friend/ok_friend</t>
   </si>
   <si>
     <t>{
@@ -692,11 +670,26 @@
   <si>
     <t>{
  "status": 0,
+ "server_friend_version": xxx
+ }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "status": 0
+ "server_friend_version": xxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "status": 0,
  "server_friend_version" :xxx,
  "update_type: " 1 (全部更新)
                 2 （部分更新）
  "friends": [
- { "nickname": xxxx,
+ { "group":     xxxx 
+    "nickname": xxxx,
       "avatar_url": xxxx,
       "mobile": xxx,
       "status": 1,( 正常好友)
@@ -713,16 +706,26 @@
   </si>
   <si>
     <t>{
- "status": 0,
- "server_friend_version": xxx
- }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "status": 0
- "server_friend_version": xxx,
+"client":xxx
+"imsi":xxx
+"mobile_friend_version": xxxx,
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accept friend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friend/accept_friend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update friend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friend/update_friend</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1483,8 +1486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1518,7 +1521,7 @@
         <v>26</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1601,43 +1604,43 @@
         <v>24</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2"/>
       <c r="C7" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="173.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="23"/>
       <c r="C8" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>94</v>
-      </c>
       <c r="E8" s="25" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="35"/>
@@ -1645,16 +1648,16 @@
     <row r="9" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="23"/>
       <c r="C9" s="24" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D9" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="25" t="s">
-        <v>71</v>
-      </c>
       <c r="F9" s="25" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G9" s="25"/>
       <c r="H9" s="35"/>
@@ -1797,7 +1800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R87"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
@@ -1814,7 +1817,7 @@
   <sheetData>
     <row r="1" spans="2:18" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
@@ -1822,12 +1825,12 @@
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="32"/>
@@ -1836,7 +1839,7 @@
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="2:18" s="29" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -1848,27 +1851,27 @@
         <v>64</v>
       </c>
       <c r="O7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
         <v>75</v>
       </c>
-      <c r="D8" t="s">
-        <v>76</v>
-      </c>
       <c r="H8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" t="s">
         <v>75</v>
       </c>
-      <c r="J8" t="s">
-        <v>76</v>
-      </c>
       <c r="O8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8" t="s">
         <v>75</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.15">
@@ -2141,7 +2144,7 @@
         <v>65</v>
       </c>
       <c r="O32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.15">
@@ -2259,7 +2262,7 @@
         <v>62</v>
       </c>
       <c r="O43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.15">
@@ -2291,10 +2294,10 @@
         <v>44</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O50" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.15">
@@ -2402,7 +2405,7 @@
     <row r="65" spans="2:5" s="29" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="67" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.15">
@@ -2415,10 +2418,10 @@
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.15">
@@ -2437,7 +2440,7 @@
         <v>46</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.15">
@@ -2461,22 +2464,22 @@
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B87" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/docs/API_Intro_V2.xlsx
+++ b/docs/API_Intro_V2.xlsx
@@ -21,6 +21,31 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+comment目前未使用</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E9" authorId="0">
       <text>
         <r>
@@ -264,12 +289,6 @@
   </si>
   <si>
     <t>{
- "search_str": xxxx,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
  "status": 55,
  "error": "undefine error",
 }</t>
@@ -339,14 +358,6 @@
   </si>
   <si>
     <t>undefine error</t>
-  </si>
-  <si>
-    <t>{
- "imsi": xxxx,  //my imsi 
- "target_user": xxxx,
- "comment": xxxx,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -520,14 +531,6 @@
       "circle_url": xxx,
  }, {}
  ]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "nickname": xxxx,
-  "avatar_url": xxxx,
-  "mobile": xxx,
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -641,14 +644,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
- "nok": x, //1: agree, 0: disagree
- "imsi": xxxx,
- "target_user": xxxx,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. target user don't register:
 {
  "status": 28,
@@ -705,6 +700,60 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>accept friend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friend/accept_friend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update friend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friend/update_friend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "imsi": xxxx,  //my imsi 
+ "target_user": xxxx,
+ "comment": xxxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"client": xxxx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ "search_str": xxxx,
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
 "client":xxx
 "imsi":xxx
@@ -713,19 +762,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>accept friend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>friend/accept_friend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update friend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>friend/update_friend</t>
+    <r>
+      <t xml:space="preserve">{
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"client": xxx,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  "nickname": xxxx,
+  "avatar_url": xxxx,
+  "mobile": xxx,
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "client": xxxx,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ "nok": x, //1: agree, 0: disagree
+ "imsi": xxxx,
+ "target_user": xxxx,
+}</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -733,7 +830,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -836,6 +933,13 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1486,8 +1590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1503,10 +1607,10 @@
   <sheetData>
     <row r="2" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>1</v>
@@ -1518,10 +1622,10 @@
         <v>4</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1595,52 +1699,52 @@
         <v>11</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2"/>
       <c r="C7" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="173.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="23"/>
       <c r="C8" s="24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="35"/>
@@ -1648,16 +1752,16 @@
     <row r="9" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="23"/>
       <c r="C9" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>70</v>
-      </c>
       <c r="F9" s="25" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G9" s="25"/>
       <c r="H9" s="35"/>
@@ -1671,13 +1775,13 @@
         <v>13</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H10" s="35"/>
     </row>
@@ -1708,10 +1812,10 @@
   <sheetData>
     <row r="2" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C2" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>28</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1719,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1727,7 +1831,7 @@
         <v>503</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1735,7 +1839,7 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1743,7 +1847,7 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1751,7 +1855,7 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1759,7 +1863,7 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1767,7 +1871,7 @@
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1775,7 +1879,7 @@
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1783,7 +1887,7 @@
         <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1817,7 +1921,7 @@
   <sheetData>
     <row r="1" spans="2:18" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="37" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
@@ -1825,12 +1929,12 @@
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="32"/>
@@ -1839,521 +1943,521 @@
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:18" s="29" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B11" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O11" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q11" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="R11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B13" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O13" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q13" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B15" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="H15" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" t="s">
         <v>48</v>
       </c>
-      <c r="E15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="19" t="s">
+      <c r="O15" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q15" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="R15" t="s">
         <v>48</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="K15" t="s">
-        <v>50</v>
-      </c>
-      <c r="O15" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q15" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="R15" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B18" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
       <c r="H18" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
       <c r="K18" s="26"/>
       <c r="N18" s="26"/>
       <c r="O18" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.15">
       <c r="H20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" t="s">
         <v>41</v>
       </c>
-      <c r="J20" t="s">
-        <v>43</v>
-      </c>
       <c r="O20" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q20" t="s">
         <v>41</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B21" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B23" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D23" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" t="s">
         <v>47</v>
       </c>
-      <c r="E23" t="s">
-        <v>49</v>
-      </c>
       <c r="H23" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O23" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q23" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="R23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B25" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" t="s">
-        <v>50</v>
-      </c>
       <c r="H25" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J25" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25" t="s">
         <v>47</v>
       </c>
-      <c r="K25" t="s">
-        <v>49</v>
-      </c>
       <c r="O25" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q25" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.15">
       <c r="D27" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H27" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" t="s">
         <v>48</v>
       </c>
-      <c r="J27" s="19" t="s">
+      <c r="O27" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q27" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="R27" t="s">
         <v>48</v>
-      </c>
-      <c r="K27" t="s">
-        <v>50</v>
-      </c>
-      <c r="O27" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q27" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="R27" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O32" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.15">
       <c r="H35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.15">
       <c r="H37" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J37" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O37" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q37" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="R37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H39" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I39" t="s">
         <v>47</v>
       </c>
-      <c r="I39" t="s">
-        <v>49</v>
-      </c>
       <c r="J39" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K39" t="s">
         <v>47</v>
       </c>
-      <c r="K39" t="s">
-        <v>49</v>
-      </c>
       <c r="O39" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q39" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H41" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
         <v>48</v>
       </c>
-      <c r="I41" t="s">
-        <v>50</v>
-      </c>
       <c r="J41" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K41" t="s">
+        <v>66</v>
+      </c>
+      <c r="O41" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q41" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="R41" t="s">
         <v>48</v>
-      </c>
-      <c r="K41" t="s">
-        <v>68</v>
-      </c>
-      <c r="O41" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q41" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="R41" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="42" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O43" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.15">
       <c r="H44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D48" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B50" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O50" s="22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B52" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" t="s">
         <v>47</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E52" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.15">
       <c r="H53" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B54" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" t="s">
         <v>48</v>
       </c>
-      <c r="D54" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E54" t="s">
-        <v>50</v>
-      </c>
       <c r="H54" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J54" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E56" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I56" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J56" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K56" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.15">
@@ -2376,80 +2480,80 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.15">
       <c r="H58" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I58" t="s">
         <v>47</v>
       </c>
-      <c r="I58" t="s">
-        <v>49</v>
-      </c>
       <c r="J58" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K58" t="s">
         <v>47</v>
-      </c>
-      <c r="K58" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.15">
       <c r="H60" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
         <v>48</v>
       </c>
-      <c r="I60" t="s">
-        <v>50</v>
-      </c>
       <c r="J60" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K60" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="2:5" s="29" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="67" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
+        <v>39</v>
+      </c>
+      <c r="D68" t="s">
         <v>41</v>
-      </c>
-      <c r="D68" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D69" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B71" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B73" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C75" s="28"/>
       <c r="D75" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E75" t="s">
         <v>48</v>
-      </c>
-      <c r="E75" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.15">
@@ -2464,22 +2568,22 @@
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B87" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/docs/API_Intro_V2.xlsx
+++ b/docs/API_Intro_V2.xlsx
@@ -677,29 +677,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
- "status": 0,
- "server_friend_version" :xxx,
- "update_type: " 1 (全部更新)
-                2 （部分更新）
- "friends": [
- { "group":     xxxx 
-    "nickname": xxxx,
-      "avatar_url": xxxx,
-      "mobile": xxx,
-      "status": 1,( 正常好友)
-                2( 待验证好友)
- },{}
- ]
- "circle": [
- { "circlename": xxx,
-      "circle_url": xxx,
- }, {}
- ]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>accept friend</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -821,6 +798,52 @@
  "nok": x, //1: agree, 0: disagree
  "imsi": xxxx,
  "target_user": xxxx,
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+ "status": 0,
+ "server_friend_version" :xxx,
+ "update_type: " 1 (全部更新)
+                2 （部分更新）
+ "friends": [
+ { "group":     xxxx 
+    "nickname": xxxx,
+      "avatar_url": xxxx,
+      "mobile": xxx,
+      "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>verifystatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": 1,( 正常好友)
+                2( 待验证好友)
+ },{}
+ ]
+ "circle": [
+ { "circlename": xxx,
+      "circle_url": xxx,
+ }, {}
+ ]
 }</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1082,7 +1105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1174,6 +1197,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1591,7 +1617,7 @@
   <dimension ref="B2:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1699,7 +1725,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>38</v>
@@ -1714,13 +1740,13 @@
     <row r="7" spans="2:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2"/>
       <c r="C7" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>96</v>
-      </c>
       <c r="E7" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>93</v>
@@ -1741,24 +1767,24 @@
         <v>89</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="G8" s="25"/>
+        <v>103</v>
+      </c>
+      <c r="G8" s="38"/>
       <c r="H8" s="35"/>
     </row>
     <row r="9" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="23"/>
       <c r="C9" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>98</v>
-      </c>
       <c r="E9" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9" s="25" t="s">
         <v>92</v>
@@ -1775,7 +1801,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>67</v>

--- a/docs/API_Intro_V2.xlsx
+++ b/docs/API_Intro_V2.xlsx
@@ -804,7 +804,7 @@
   </si>
   <si>
     <r>
-      <t>{
+      <t xml:space="preserve">{
  "status": 0,
  "server_friend_version" :xxx,
  "update_type: " 1 (全部更新)
@@ -814,18 +814,7 @@
     "nickname": xxxx,
       "avatar_url": xxxx,
       "mobile": xxx,
-      "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>verifystatus</t>
+</t>
     </r>
     <r>
       <rPr>
@@ -835,9 +824,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>": 1,( 正常好友)
-                2( 待验证好友)
- },{}
+      <t xml:space="preserve"> },{}
  ]
  "circle": [
  { "circlename": xxx,
@@ -1195,11 +1182,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1616,8 +1603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1772,7 +1759,7 @@
       <c r="F8" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="G8" s="38"/>
+      <c r="G8" s="37"/>
       <c r="H8" s="35"/>
     </row>
     <row r="9" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.15">
@@ -1946,12 +1933,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B3" t="s">

--- a/docs/API_Intro_V2.xlsx
+++ b/docs/API_Intro_V2.xlsx
@@ -236,15 +236,6 @@
   </si>
   <si>
     <t>{
- "mobile": xxxx,
- "password": xxxx,
- "confirmpass": xxxx,
- "imsi": xxxx,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
  "status": 0,
  "username": xxxx,
  "nickname": xxxx,
@@ -736,38 +727,6 @@
 "imsi":xxx
 "mobile_friend_version": xxxx,
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">{
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"client": xxx,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-  "nickname": xxxx,
-  "avatar_url": xxxx,
-  "mobile": xxx,
-}</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -833,6 +792,48 @@
  ]
 }</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"client": xxx,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  "nickname": xxxx,
+  "avatar_url": xxxx,
+  "mobile": xxx,
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "mobile": xxxx,
+ "password": xxxx,
+ "confirmpass": xxxx,
+ "imsi": xxxx,
+ "nickname": xxxx,
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1603,8 +1604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1620,10 +1621,10 @@
   <sheetData>
     <row r="2" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>1</v>
@@ -1635,10 +1636,10 @@
         <v>4</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1655,10 +1656,10 @@
         <v>16</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="H3" s="34"/>
     </row>
@@ -1671,13 +1672,13 @@
         <v>6</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="35"/>
       <c r="I4" s="5"/>
@@ -1691,13 +1692,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" s="36"/>
     </row>
@@ -1712,52 +1713,52 @@
         <v>11</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2"/>
       <c r="C7" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>95</v>
-      </c>
       <c r="E7" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="35" t="s">
         <v>90</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="173.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="23"/>
       <c r="C8" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>89</v>
-      </c>
       <c r="E8" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G8" s="37"/>
       <c r="H8" s="35"/>
@@ -1765,16 +1766,16 @@
     <row r="9" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="23"/>
       <c r="C9" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>97</v>
-      </c>
       <c r="E9" s="25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G9" s="25"/>
       <c r="H9" s="35"/>
@@ -1788,13 +1789,13 @@
         <v>13</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H10" s="35"/>
     </row>
@@ -1825,10 +1826,10 @@
   <sheetData>
     <row r="2" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>27</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1836,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1844,7 +1845,7 @@
         <v>503</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1852,7 +1853,7 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1860,7 +1861,7 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1868,7 +1869,7 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1876,7 +1877,7 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1884,7 +1885,7 @@
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1892,7 +1893,7 @@
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1900,7 +1901,7 @@
         <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1934,7 +1935,7 @@
   <sheetData>
     <row r="1" spans="2:18" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
@@ -1942,12 +1943,12 @@
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="32"/>
@@ -1956,521 +1957,521 @@
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="2:18" s="29" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
         <v>71</v>
       </c>
-      <c r="D8" t="s">
-        <v>72</v>
-      </c>
       <c r="H8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" t="s">
         <v>71</v>
       </c>
-      <c r="J8" t="s">
-        <v>72</v>
-      </c>
       <c r="O8" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q8" t="s">
         <v>71</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B11" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="19" t="s">
-        <v>43</v>
-      </c>
       <c r="J11" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="O11" s="19" t="s">
-        <v>43</v>
-      </c>
       <c r="Q11" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B13" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O13" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q13" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B15" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q15" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B18" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
       <c r="H18" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
       <c r="K18" s="26"/>
       <c r="N18" s="26"/>
       <c r="O18" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.15">
       <c r="H20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B21" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B23" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="19" t="s">
-        <v>45</v>
-      </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K23" t="s">
+        <v>41</v>
+      </c>
+      <c r="O23" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="O23" s="19" t="s">
-        <v>43</v>
-      </c>
       <c r="Q23" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B25" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="O25" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q25" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="R25" t="s">
         <v>46</v>
-      </c>
-      <c r="E25" t="s">
-        <v>48</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="J25" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="K25" t="s">
-        <v>47</v>
-      </c>
-      <c r="O25" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q25" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="R25" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.15">
       <c r="D27" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" t="s">
         <v>49</v>
       </c>
-      <c r="E27" t="s">
-        <v>50</v>
-      </c>
       <c r="H27" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O27" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q27" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.15">
       <c r="H35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.15">
       <c r="H37" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I37" t="s">
+        <v>41</v>
+      </c>
+      <c r="J37" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="J37" s="19" t="s">
-        <v>43</v>
-      </c>
       <c r="K37" t="s">
+        <v>41</v>
+      </c>
+      <c r="O37" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="O37" s="19" t="s">
-        <v>43</v>
-      </c>
       <c r="Q37" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H39" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J39" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O39" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q39" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J41" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O41" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q41" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.15">
       <c r="H44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B50" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O50" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B52" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.15">
       <c r="H53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B54" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E56" t="s">
         <v>49</v>
       </c>
-      <c r="D56" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E56" t="s">
-        <v>50</v>
-      </c>
       <c r="H56" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I56" t="s">
+        <v>41</v>
+      </c>
+      <c r="J56" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="J56" s="19" t="s">
-        <v>43</v>
-      </c>
       <c r="K56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.15">
@@ -2493,80 +2494,80 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.15">
       <c r="H58" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J58" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.15">
       <c r="H60" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J60" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="2:5" s="29" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="67" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B71" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B73" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C75" s="28"/>
       <c r="D75" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.15">
@@ -2581,22 +2582,22 @@
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/docs/API_Intro_V2.xlsx
+++ b/docs/API_Intro_V2.xlsx
@@ -827,13 +827,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
+    <r>
+      <t xml:space="preserve">{
  "mobile": xxxx,
  "password": xxxx,
  "confirmpass": xxxx,
  "imsi": xxxx,
- "nickname": xxxx,
-}</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "nickname": xxxx,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1605,7 +1628,7 @@
   <dimension ref="B2:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/docs/API_Intro_V2.xlsx
+++ b/docs/API_Intro_V2.xlsx
@@ -351,12 +351,6 @@
     <t>undefine error</t>
   </si>
   <si>
-    <t>{
- "status": 0
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">MOBILE </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -856,6 +850,36 @@
         <scheme val="minor"/>
       </rPr>
       <t>}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+ "status": 0
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"server_friend_version": xxx,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1628,7 +1652,7 @@
   <dimension ref="B2:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1662,7 +1686,7 @@
         <v>24</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1695,7 +1719,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
@@ -1736,52 +1760,52 @@
         <v>11</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2"/>
       <c r="C7" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>94</v>
-      </c>
       <c r="E7" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="35" t="s">
         <v>89</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="173.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="23"/>
       <c r="C8" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>88</v>
-      </c>
       <c r="E8" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G8" s="37"/>
       <c r="H8" s="35"/>
@@ -1789,16 +1813,16 @@
     <row r="9" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="23"/>
       <c r="C9" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>96</v>
-      </c>
       <c r="E9" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G9" s="25"/>
       <c r="H9" s="35"/>
@@ -1812,10 +1836,10 @@
         <v>13</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>21</v>
@@ -1958,7 +1982,7 @@
   <sheetData>
     <row r="1" spans="2:18" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
@@ -1966,12 +1990,12 @@
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="32"/>
@@ -1980,521 +2004,521 @@
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="2:18" s="29" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" t="s">
         <v>70</v>
       </c>
-      <c r="D8" t="s">
-        <v>71</v>
-      </c>
       <c r="H8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" t="s">
         <v>70</v>
       </c>
-      <c r="J8" t="s">
-        <v>71</v>
-      </c>
       <c r="O8" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q8" t="s">
         <v>70</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B11" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="19" t="s">
-        <v>42</v>
-      </c>
       <c r="J11" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="O11" s="19" t="s">
-        <v>42</v>
-      </c>
       <c r="Q11" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B13" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O13" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B15" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q15" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B18" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
       <c r="H18" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
       <c r="K18" s="26"/>
       <c r="N18" s="26"/>
       <c r="O18" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.15">
       <c r="H20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B21" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B23" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="19" t="s">
-        <v>44</v>
-      </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K23" t="s">
+        <v>40</v>
+      </c>
+      <c r="O23" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="O23" s="19" t="s">
-        <v>42</v>
-      </c>
       <c r="Q23" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B25" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="O25" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q25" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="R25" t="s">
         <v>45</v>
-      </c>
-      <c r="E25" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="J25" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="K25" t="s">
-        <v>46</v>
-      </c>
-      <c r="O25" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q25" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="R25" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.15">
       <c r="D27" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" t="s">
         <v>48</v>
       </c>
-      <c r="E27" t="s">
-        <v>49</v>
-      </c>
       <c r="H27" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O27" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q27" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.15">
       <c r="H35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.15">
       <c r="H37" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I37" t="s">
+        <v>40</v>
+      </c>
+      <c r="J37" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="J37" s="19" t="s">
-        <v>42</v>
-      </c>
       <c r="K37" t="s">
+        <v>40</v>
+      </c>
+      <c r="O37" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="O37" s="19" t="s">
-        <v>42</v>
-      </c>
       <c r="Q37" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H39" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J39" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O39" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q39" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J41" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O41" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q41" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.15">
       <c r="H44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B50" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O50" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B52" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.15">
       <c r="H53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B54" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E56" t="s">
         <v>48</v>
       </c>
-      <c r="D56" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E56" t="s">
-        <v>49</v>
-      </c>
       <c r="H56" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I56" t="s">
+        <v>40</v>
+      </c>
+      <c r="J56" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="J56" s="19" t="s">
-        <v>42</v>
-      </c>
       <c r="K56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.15">
@@ -2517,80 +2541,80 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.15">
       <c r="H58" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J58" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.15">
       <c r="H60" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J60" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="2:5" s="29" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="67" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B71" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B73" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C75" s="28"/>
       <c r="D75" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.15">
@@ -2605,22 +2629,22 @@
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/docs/API_Intro_V2.xlsx
+++ b/docs/API_Intro_V2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="API 使用说明" sheetId="1" r:id="rId1"/>
@@ -1651,7 +1651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+    <sheetView topLeftCell="B10" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1965,8 +1965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R87"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2405,7 +2405,7 @@
         <v>64</v>
       </c>
       <c r="O41" s="19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q41" s="19" t="s">
         <v>44</v>

--- a/docs/API_Intro_V2.xlsx
+++ b/docs/API_Intro_V2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="API 使用说明" sheetId="1" r:id="rId1"/>
@@ -47,6 +47,33 @@
       </text>
     </comment>
     <comment ref="E9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.带商榷怎么传照片
+2.某些项：可以是option的</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -169,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="107">
   <si>
     <t>check if register</t>
   </si>
@@ -883,12 +910,27 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>delete friend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friend/delete_friend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "client": xxx,
+  "mobile": xxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -999,8 +1041,21 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1034,6 +1089,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1140,7 +1201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1235,6 +1296,19 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1337,8 +1411,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:G10" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
-  <autoFilter ref="B2:G10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:G11" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
+  <autoFilter ref="B2:G11"/>
   <tableColumns count="6">
     <tableColumn id="1" name="模块" dataDxfId="6"/>
     <tableColumn id="2" name="说明" dataDxfId="5"/>
@@ -1649,13 +1723,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I10"/>
+  <dimension ref="B2:I11"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="12" customWidth="1"/>
@@ -1666,7 +1740,7 @@
     <col min="8" max="8" width="56.375" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" ht="14.25" thickBot="1">
       <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1689,7 +1763,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9" ht="99.95" customHeight="1">
       <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
@@ -1710,7 +1784,7 @@
       </c>
       <c r="H3" s="34"/>
     </row>
-    <row r="4" spans="2:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:9" ht="99.95" customHeight="1">
       <c r="B4" s="15"/>
       <c r="C4" s="10" t="s">
         <v>5</v>
@@ -1730,7 +1804,7 @@
       <c r="H4" s="35"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="2:9" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" ht="99.95" customHeight="1" thickBot="1">
       <c r="B5" s="16"/>
       <c r="C5" s="11" t="s">
         <v>7</v>
@@ -1749,7 +1823,7 @@
       </c>
       <c r="H5" s="36"/>
     </row>
-    <row r="6" spans="2:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:9" ht="99.95" customHeight="1">
       <c r="B6" s="13" t="s">
         <v>14</v>
       </c>
@@ -1772,7 +1846,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9" ht="99.95" customHeight="1">
       <c r="B7" s="2"/>
       <c r="C7" s="10" t="s">
         <v>92</v>
@@ -1793,7 +1867,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="173.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:9" ht="173.25" customHeight="1">
       <c r="B8" s="23"/>
       <c r="C8" s="24" t="s">
         <v>86</v>
@@ -1810,7 +1884,7 @@
       <c r="G8" s="37"/>
       <c r="H8" s="35"/>
     </row>
-    <row r="9" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:9" ht="96" customHeight="1">
       <c r="B9" s="23"/>
       <c r="C9" s="24" t="s">
         <v>94</v>
@@ -1827,24 +1901,41 @@
       <c r="G9" s="25"/>
       <c r="H9" s="35"/>
     </row>
-    <row r="10" spans="2:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="2"/>
-      <c r="C10" s="10" t="s">
+    <row r="10" spans="2:9" s="40" customFormat="1" ht="96" customHeight="1">
+      <c r="B10" s="41"/>
+      <c r="C10" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="43"/>
+      <c r="H10" s="39"/>
+    </row>
+    <row r="11" spans="2:9" ht="83.25" customHeight="1">
+      <c r="B11" s="2"/>
+      <c r="C11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="35"/>
+      <c r="H11" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1865,13 +1956,13 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="20.625" style="17" customWidth="1"/>
     <col min="4" max="4" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="3:4" ht="20.100000000000001" customHeight="1">
       <c r="C2" s="18" t="s">
         <v>26</v>
       </c>
@@ -1879,7 +1970,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:4" ht="20.100000000000001" customHeight="1">
       <c r="C3" s="17">
         <v>0</v>
       </c>
@@ -1887,7 +1978,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:4" ht="20.100000000000001" customHeight="1">
       <c r="C4" s="17">
         <v>503</v>
       </c>
@@ -1895,7 +1986,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:4" ht="20.100000000000001" customHeight="1">
       <c r="C5" s="17">
         <v>14</v>
       </c>
@@ -1903,7 +1994,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:4" ht="20.100000000000001" customHeight="1">
       <c r="C6" s="17">
         <v>10</v>
       </c>
@@ -1911,7 +2002,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:4" ht="20.100000000000001" customHeight="1">
       <c r="C7" s="17">
         <v>16</v>
       </c>
@@ -1919,7 +2010,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:4" ht="20.100000000000001" customHeight="1">
       <c r="C8" s="17">
         <v>22</v>
       </c>
@@ -1927,7 +2018,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:4" ht="20.100000000000001" customHeight="1">
       <c r="C9" s="17">
         <v>28</v>
       </c>
@@ -1935,7 +2026,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:4" ht="20.100000000000001" customHeight="1">
       <c r="C10" s="17">
         <v>34</v>
       </c>
@@ -1943,7 +2034,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:4" ht="20.100000000000001" customHeight="1">
       <c r="C11" s="17">
         <v>55</v>
       </c>
@@ -1965,11 +2056,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="13.75" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
@@ -1980,7 +2071,7 @@
     <col min="13" max="13" width="6.125" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:18" ht="109.5" customHeight="1">
       <c r="B1" s="38" t="s">
         <v>84</v>
       </c>
@@ -1988,12 +2079,12 @@
       <c r="D1" s="38"/>
       <c r="E1" s="38"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:18">
       <c r="B3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:18">
       <c r="B4" t="s">
         <v>72</v>
       </c>
@@ -2002,13 +2093,13 @@
       <c r="L4" s="30"/>
       <c r="M4" s="32"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:18">
       <c r="B5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="2:18" s="29" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:18" s="29" customFormat="1"/>
+    <row r="7" spans="2:18">
       <c r="B7" t="s">
         <v>50</v>
       </c>
@@ -2019,7 +2110,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:18">
       <c r="B8" t="s">
         <v>69</v>
       </c>
@@ -2039,7 +2130,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:18">
       <c r="B9" t="s">
         <v>38</v>
       </c>
@@ -2059,7 +2150,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:18">
       <c r="B11" s="19" t="s">
         <v>41</v>
       </c>
@@ -2088,7 +2179,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:18">
       <c r="B13" s="19" t="s">
         <v>42</v>
       </c>
@@ -2117,7 +2208,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:18">
       <c r="B15" s="19" t="s">
         <v>44</v>
       </c>
@@ -2146,7 +2237,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:18">
       <c r="B18" s="26" t="s">
         <v>51</v>
       </c>
@@ -2164,7 +2255,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:18">
       <c r="B19" t="s">
         <v>38</v>
       </c>
@@ -2172,7 +2263,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:18">
       <c r="H20" t="s">
         <v>37</v>
       </c>
@@ -2186,7 +2277,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:18">
       <c r="B21" s="19" t="s">
         <v>41</v>
       </c>
@@ -2209,7 +2300,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:18">
       <c r="B23" s="19" t="s">
         <v>42</v>
       </c>
@@ -2238,7 +2329,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:18">
       <c r="B25" s="19" t="s">
         <v>44</v>
       </c>
@@ -2267,7 +2358,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:18">
       <c r="D27" s="20" t="s">
         <v>47</v>
       </c>
@@ -2293,7 +2384,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:18">
       <c r="B30" t="s">
         <v>52</v>
       </c>
@@ -2301,7 +2392,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:18">
       <c r="B32" t="s">
         <v>54</v>
       </c>
@@ -2312,7 +2403,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:18">
       <c r="B34" t="s">
         <v>53</v>
       </c>
@@ -2320,7 +2411,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:18">
       <c r="H35" t="s">
         <v>38</v>
       </c>
@@ -2334,12 +2425,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:18">
       <c r="B36" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:18">
       <c r="H37" s="19" t="s">
         <v>41</v>
       </c>
@@ -2362,7 +2453,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:18">
       <c r="B39" t="s">
         <v>56</v>
       </c>
@@ -2388,7 +2479,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:18">
       <c r="B41" t="s">
         <v>57</v>
       </c>
@@ -2414,7 +2505,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:18" ht="20.100000000000001" customHeight="1">
       <c r="H42" t="s">
         <v>53</v>
       </c>
@@ -2422,7 +2513,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:18">
       <c r="B43" t="s">
         <v>58</v>
       </c>
@@ -2430,17 +2521,17 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:18">
       <c r="H44" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:18">
       <c r="B45" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:18">
       <c r="B48" t="s">
         <v>49</v>
       </c>
@@ -2448,7 +2539,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:18">
       <c r="B50" s="19" t="s">
         <v>41</v>
       </c>
@@ -2465,7 +2556,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:18">
       <c r="B52" s="19" t="s">
         <v>43</v>
       </c>
@@ -2476,12 +2567,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:18">
       <c r="H53" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:18">
       <c r="B54" s="19" t="s">
         <v>44</v>
       </c>
@@ -2498,7 +2589,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:18">
       <c r="B56" s="20" t="s">
         <v>47</v>
       </c>
@@ -2521,7 +2612,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:18" s="29" customFormat="1">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
@@ -2539,7 +2630,7 @@
       <c r="Q57"/>
       <c r="R57"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:18">
       <c r="H58" s="19" t="s">
         <v>43</v>
       </c>
@@ -2553,7 +2644,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:18">
       <c r="H60" s="20" t="s">
         <v>44</v>
       </c>
@@ -2567,13 +2658,13 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="2:5" s="29" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:5" s="29" customFormat="1"/>
+    <row r="67" spans="2:5">
       <c r="B67" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:5">
       <c r="B68" t="s">
         <v>37</v>
       </c>
@@ -2581,7 +2672,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:5">
       <c r="B69" t="s">
         <v>76</v>
       </c>
@@ -2589,7 +2680,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:5">
       <c r="B71" s="19" t="s">
         <v>41</v>
       </c>
@@ -2600,7 +2691,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:5">
       <c r="B73" s="19" t="s">
         <v>42</v>
       </c>
@@ -2608,7 +2699,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:5">
       <c r="C75" s="28"/>
       <c r="D75" s="19" t="s">
         <v>44</v>
@@ -2617,32 +2708,32 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:5">
       <c r="B76" s="28"/>
       <c r="D76" s="28"/>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:5">
       <c r="B78" s="31"/>
       <c r="C78" s="31"/>
       <c r="D78" s="31"/>
       <c r="E78" s="31"/>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:5">
       <c r="B80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:2">
       <c r="B82" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:2">
       <c r="B85" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:2">
       <c r="B87" t="s">
         <v>85</v>
       </c>

--- a/docs/API_Intro_V2.xlsx
+++ b/docs/API_Intro_V2.xlsx
@@ -530,23 +530,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
- "status": 0,
- "friends": [
- { "nickname": xxxx,
-      "avatar_url": xxxx,
-      "mobile": xxx,
- },{}
- ]
- "circle": [
- { "circlename": xxx,
-      "circle_url": xxx,
- }, {}
- ]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MOBILE 将FRIEND 2的删除事件上报server</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -702,84 +685,6 @@
   </si>
   <si>
     <t>friend/update_friend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "imsi": xxxx,  //my imsi 
- "target_user": xxxx,
- "comment": xxxx,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">{
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"client": xxxx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- "search_str": xxxx,
-}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"client":xxx
-"imsi":xxx
-"mobile_friend_version": xxxx,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">{
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "client": xxxx,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- "nok": x, //1: agree, 0: disagree
- "imsi": xxxx,
- "target_user": xxxx,
-}</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -818,38 +723,6 @@
   <si>
     <r>
       <t xml:space="preserve">{
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"client": xxx,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-  "nickname": xxxx,
-  "avatar_url": xxxx,
-  "mobile": xxx,
-}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">{
  "mobile": xxxx,
  "password": xxxx,
  "confirmpass": xxxx,
@@ -920,8 +793,98 @@
   </si>
   <si>
     <t>{
-  "client": xxx,
-  "mobile": xxx,
+ /* the mobile that register */
+ "mobile": xxxx,
+ /* the mobile that want to add */
+ "add friend": xxxx, 
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /* the mobile that register */
+ "mobile": xxxx,
+ /* 1: agree, 0: disagree */</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ "nok": x,
+ /* the mobile that want to respone */
+ "to friend": xxxx, 
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ /* the mobile that register */
+ "mobile": xxxx,
+ "mobile_friend_version": xxxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ /* the mobile that register */
+ "mobile": xxxx,
+ /* comment to identify friend */
+ "comment": xxxx,
+ /* group that settle the friend */
+ "group": xxxx,
+ /* description for friend */
+ "description": xxxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ /* the mobile that register */
+ "mobile": xxxx,
+ /* the mobile that want to delete */
+ "delete friend": xxxx, 
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ /* the mobile that register */
+ "mobile": xxxx,
+ "search_str": xxxx,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "status": 0,
+ "friends": [
+ { "nickname": xxxx,
+      "avatar_url": xxxx,
+      "mobile": xxx,
+ },{}
+ ]
+ "circle": [
+ { "circlename": xxx,
+      "circle_url": xxx,
+ }, {}
+ ]
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1294,9 +1257,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1309,6 +1269,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1726,7 +1689,7 @@
   <dimension ref="B2:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1734,7 +1697,7 @@
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="12" customWidth="1"/>
     <col min="4" max="4" width="27.75" style="12" customWidth="1"/>
-    <col min="5" max="5" width="25" style="22" customWidth="1"/>
+    <col min="5" max="5" width="39.25" style="22" customWidth="1"/>
     <col min="6" max="6" width="33.25" style="22" customWidth="1"/>
     <col min="7" max="7" width="56.375" customWidth="1"/>
     <col min="8" max="8" width="56.375" style="17" customWidth="1"/>
@@ -1760,7 +1723,7 @@
         <v>24</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="99.95" customHeight="1">
@@ -1793,7 +1756,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
@@ -1834,52 +1797,52 @@
         <v>11</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="99.95" customHeight="1">
       <c r="B7" s="2"/>
       <c r="C7" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>93</v>
-      </c>
       <c r="E7" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="35" t="s">
         <v>88</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="173.25" customHeight="1">
       <c r="B8" s="23"/>
       <c r="C8" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>87</v>
-      </c>
       <c r="E8" s="25" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G8" s="37"/>
       <c r="H8" s="35"/>
@@ -1887,36 +1850,36 @@
     <row r="9" spans="2:9" ht="96" customHeight="1">
       <c r="B9" s="23"/>
       <c r="C9" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>95</v>
-      </c>
       <c r="E9" s="25" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G9" s="25"/>
       <c r="H9" s="35"/>
     </row>
-    <row r="10" spans="2:9" s="40" customFormat="1" ht="96" customHeight="1">
-      <c r="B10" s="41"/>
-      <c r="C10" s="42" t="s">
+    <row r="10" spans="2:9" s="39" customFormat="1" ht="96" customHeight="1">
+      <c r="B10" s="40"/>
+      <c r="C10" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="G10" s="43"/>
-      <c r="H10" s="39"/>
+      <c r="F10" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="42"/>
+      <c r="H10" s="38"/>
     </row>
     <row r="11" spans="2:9" ht="83.25" customHeight="1">
       <c r="B11" s="2"/>
@@ -1927,10 +1890,10 @@
         <v>13</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -2072,21 +2035,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="109.5" customHeight="1">
-      <c r="B1" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="3" spans="2:18">
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="2:18">
       <c r="B4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="32"/>
@@ -2095,7 +2058,7 @@
     </row>
     <row r="5" spans="2:18">
       <c r="B5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:18" s="29" customFormat="1"/>
@@ -2107,27 +2070,27 @@
         <v>60</v>
       </c>
       <c r="O7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="2:18">
       <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
         <v>69</v>
       </c>
-      <c r="D8" t="s">
-        <v>70</v>
-      </c>
       <c r="H8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" t="s">
         <v>69</v>
       </c>
-      <c r="J8" t="s">
-        <v>70</v>
-      </c>
       <c r="O8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q8" t="s">
         <v>69</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="9" spans="2:18">
@@ -2400,7 +2363,7 @@
         <v>61</v>
       </c>
       <c r="O32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="2:18">
@@ -2518,7 +2481,7 @@
         <v>58</v>
       </c>
       <c r="O43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="2:18">
@@ -2550,10 +2513,10 @@
         <v>40</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O50" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -2661,7 +2624,7 @@
     <row r="65" spans="2:5" s="29" customFormat="1"/>
     <row r="67" spans="2:5">
       <c r="B67" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="2:5">
@@ -2674,10 +2637,10 @@
     </row>
     <row r="69" spans="2:5">
       <c r="B69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="2:5">
@@ -2696,7 +2659,7 @@
         <v>42</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="2:5">
@@ -2720,22 +2683,22 @@
     </row>
     <row r="80" spans="2:5">
       <c r="B80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
